--- a/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
@@ -20,85 +20,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">รายงานทะเบียนคุมเช็ค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Received Date</t>
+  </si>
   <si>
     <t xml:space="preserve">Lot Number</t>
   </si>
   <si>
-    <t xml:space="preserve">From Cheque Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Cheque Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheque Lot</t>
+    <t xml:space="preserve">Cheque Number From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Number To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Name</t>
   </si>
   <si>
     <t xml:space="preserve">Cheque Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Payment Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Export</t>
+    <t xml:space="preserve">Supplier Payment Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posting Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encashed Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voided Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE Responsible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+  <fonts count="5">
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -123,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -131,21 +141,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -172,40 +167,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,89 +213,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="15.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>3</v>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.511805555555555" footer="0.1"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter>&amp;L&amp;8 2018-02-20 09:37:39&amp;R&amp;8&amp;P / &amp;N</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">รายงานทะเบียนคุมเช็ค</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Cheque Register Report</t>
   </si>
   <si>
     <t xml:space="preserve">Cheque Received Date</t>
@@ -80,8 +80,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -167,15 +169,31 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,7 +202,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,7 +235,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -225,100 +247,106 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="28.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="4" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
@@ -83,7 +83,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,###.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -169,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,10 +204,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -247,7 +243,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="29.71"/>
@@ -288,7 +284,6 @@
         <v>4</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -309,44 +304,44 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
@@ -20,51 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">Cheque Register Report</t>
   </si>
   <si>
+    <t xml:space="preserve">Cheque Received Date From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Received Date To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Number From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Number To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Payment Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posting Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheque Amount</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cheque Received Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lot Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheque Number From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheque Number To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheque Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Payment Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posting Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheque Amount</t>
   </si>
   <si>
     <t xml:space="preserve">Encashed Date</t>
@@ -238,12 +244,12 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.79"/>
@@ -272,81 +278,85 @@
         <v>1</v>
       </c>
       <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
